--- a/Projeto-X-Bot.xlsx
+++ b/Projeto-X-Bot.xlsx
@@ -790,7 +790,18 @@
       </c>
       <c r="D15" s="8" t="inlineStr">
         <is>
-          <t>Não postado</t>
+          <t>Postado</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>"DESCONTÃO de FIM DE SEMANA! 🔥 Integralmedica Nutri Whey Protein 907G - Baunilha - 900G por apenas R$ 58,87! 🔥 Limited stock! Compre agora e impulse sua transformação física! Link para compra [insira link] #Integralmedica #NutriWhey #Proteina"
+https://amzn.to/3zbSah2</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>2024-06-21 20:42:38.199769-03:00</t>
         </is>
       </c>
     </row>

--- a/Projeto-X-Bot.xlsx
+++ b/Projeto-X-Bot.xlsx
@@ -750,7 +750,18 @@
       </c>
       <c r="D13" s="8" t="inlineStr">
         <is>
-          <t>Não postado</t>
+          <t>Postado</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>"LIMITADO! Desbloqueie seu potencial com a Creatina 100% Pura da Integralmédica! 300G por apenas R$77,17! Compre já e impulsione seu treino! estoque esgotando rápido! #CreatinaPura #IntegralMedica #TreinoIntenso"
+https://amzn.to/3XwZ6Q7</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2024-06-23 12:48:35.396108-03:00</t>
         </is>
       </c>
     </row>

--- a/Projeto-X-Bot.xlsx
+++ b/Projeto-X-Bot.xlsx
@@ -753,13 +753,13 @@
           <t>Postado</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="0" t="inlineStr">
         <is>
           <t>"LIMITADO! Desbloqueie seu potencial com a Creatina 100% Pura da Integralmédica! 300G por apenas R$77,17! Compre já e impulsione seu treino! estoque esgotando rápido! #CreatinaPura #IntegralMedica #TreinoIntenso"
 https://amzn.to/3XwZ6Q7</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" s="0" t="inlineStr">
         <is>
           <t>2024-06-23 12:48:35.396108-03:00</t>
         </is>
@@ -806,13 +806,13 @@
       </c>
       <c r="E15" s="0" t="inlineStr">
         <is>
-          <t>"DESCONTÃO de FIM DE SEMANA! 🔥 Integralmedica Nutri Whey Protein 907G - Baunilha - 900G por apenas R$ 58,87! 🔥 Limited stock! Compre agora e impulse sua transformação física! Link para compra [insira link] #Integralmedica #NutriWhey #Proteina"
+          <t>" Não perca essa oportunidade! Encontre o Integralmedica Nutri Whey Protein 907G - Baunilha - 900G por apenas R$ 58,87! Estoque limitado! Compre agora e impulsiona seu treino! #Integralmedica #NutriWhey #OfertaImperdivel"
 https://amzn.to/3zbSah2</t>
         </is>
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
-          <t>2024-06-21 20:42:38.199769-03:00</t>
+          <t>2024-06-23 13:07:04.687944-03:00</t>
         </is>
       </c>
     </row>

--- a/Projeto-X-Bot.xlsx
+++ b/Projeto-X-Bot.xlsx
@@ -730,7 +730,18 @@
       </c>
       <c r="D12" s="8" t="inlineStr">
         <is>
-          <t>Não postado</t>
+          <t>Postado</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>"OFERTA IMPERDÍVEL! Max Titanium Creatina - 300g por apenas R$74,90! Aumente sua performance muscular em apenas 7 dias! ⏰ Compre agora e aproveite essa oferta limited-time! #CreatinaMaxTitanium #OfertaImperdivel"
+https://amzn.to/3VPFvcm</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2024-06-23 21:56:06.282345-03:00</t>
         </is>
       </c>
     </row>

--- a/Projeto-X-Bot.xlsx
+++ b/Projeto-X-Bot.xlsx
@@ -733,13 +733,13 @@
           <t>Postado</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="0" t="inlineStr">
         <is>
           <t>"OFERTA IMPERDÍVEL! Max Titanium Creatina - 300g por apenas R$74,90! Aumente sua performance muscular em apenas 7 dias! ⏰ Compre agora e aproveite essa oferta limited-time! #CreatinaMaxTitanium #OfertaImperdivel"
 https://amzn.to/3VPFvcm</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" s="0" t="inlineStr">
         <is>
           <t>2024-06-23 21:56:06.282345-03:00</t>
         </is>
@@ -792,7 +792,18 @@
       </c>
       <c r="D14" s="8" t="inlineStr">
         <is>
-          <t>Não postado</t>
+          <t>Postado</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>"LIMITADO! Colgate Escova De Dente Slim Soft 4 Unidades por apenas R$25,99! Não perca essa oportunidade de ter um sorriso brilhante! Compre Já e economize! #Colgate #EscovaDeDente #PromoçãoImperdível"
+https://amzn.to/4cvVAJO</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2024-06-24 05:49:37.500380-03:00</t>
         </is>
       </c>
     </row>

--- a/Projeto-X-Bot.xlsx
+++ b/Projeto-X-Bot.xlsx
@@ -795,13 +795,13 @@
           <t>Postado</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="0" t="inlineStr">
         <is>
           <t>"LIMITADO! Colgate Escova De Dente Slim Soft 4 Unidades por apenas R$25,99! Não perca essa oportunidade de ter um sorriso brilhante! Compre Já e economize! #Colgate #EscovaDeDente #PromoçãoImperdível"
 https://amzn.to/4cvVAJO</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" s="0" t="inlineStr">
         <is>
           <t>2024-06-24 05:49:37.500380-03:00</t>
         </is>
@@ -828,13 +828,13 @@
       </c>
       <c r="E15" s="0" t="inlineStr">
         <is>
-          <t>" Não perca essa oportunidade! Encontre o Integralmedica Nutri Whey Protein 907G - Baunilha - 900G por apenas R$ 58,87! Estoque limitado! Compre agora e impulsiona seu treino! #Integralmedica #NutriWhey #OfertaImperdivel"
+          <t>"🚨ÚLTIMAS UNIDADES! 🚨 Aproveite essa oportunidade única! 😍 Compre o Integralmedica Nutri Whey Protein 907G - Baunilha por apenas R$ 58,87! ⏰ Não perca tempo, venda limite! 👉 Clique e garantia Já! #Integralmedica #WheyProtein #OfertaImperdível"
 https://amzn.to/3zbSah2</t>
         </is>
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
-          <t>2024-06-23 13:07:04.687944-03:00</t>
+          <t>2024-06-24 08:47:00.196955-03:00</t>
         </is>
       </c>
     </row>

--- a/Projeto-X-Bot.xlsx
+++ b/Projeto-X-Bot.xlsx
@@ -483,13 +483,13 @@
       </c>
       <c r="E3" s="6" t="inlineStr">
         <is>
-          <t>SUPER PROMOÇÃO!! WAP Parafusadeira E Furadeira A Bateria Li-Ion 12V POR APENAS 159,9
+          <t>"ÚLTIMO DIA! WAP Parafusadeira &amp; Furadeira A Bateria Li-Ion 12V por apenas R$159,90! Acabe com as baterias descartáveis e economize tempo e dinheiro! Compre agora e faça melhor seus projetos! #WAP #Ferramentas Elektro #PromoçãoImperdível"
 https://amzn.to/4bFBFYR</t>
         </is>
       </c>
       <c r="F3" s="6" t="inlineStr">
         <is>
-          <t>2024-06-02 21:08:51.917811-03:00</t>
+          <t>2024-06-24 20:58:47.465149-03:00</t>
         </is>
       </c>
       <c r="G3" t="n">

--- a/Projeto-X-Bot.xlsx
+++ b/Projeto-X-Bot.xlsx
@@ -517,13 +517,13 @@
       </c>
       <c r="E4" s="6" t="inlineStr">
         <is>
-          <t>SUPER PROMOÇÃO!! PlayStation®5 Slim Disk + 2 Jogos POR APENAS 3.696,80
+          <t>"¡OFERTA IMPERDÍVEL! PS5 Slim Disk + 2 Jogos por apenas R$3696,80! Estoque limitado! Não perca essa oportunidade! Compre já e seja um dos primeiros a ter o console mais querido do ano! #PS5 #OfertaImperdivel #Jogos"
 https://amzn.to/4bJZRt6</t>
         </is>
       </c>
       <c r="F4" s="6" t="inlineStr">
         <is>
-          <t>2024-06-02 21:34:56.414488-03:00</t>
+          <t>2024-06-25 08:47:03.673813-03:00</t>
         </is>
       </c>
       <c r="G4" s="3" t="n">

--- a/Projeto-X-Bot.xlsx
+++ b/Projeto-X-Bot.xlsx
@@ -755,13 +755,13 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>"OFERTA IMPERDÍVEL! OMO Lavagem Perfeita 5L por R$ 43,55! Encha sua casa de limpeza e economia! Compre agora e garanta o melhor preço! Corra, oferta válida por tempo limitado! #OmoLavagemPerfeita #LimpezaEmCasa #Economize"
+          <t>"ÚLTIMO DIA! Desbloqueie a promoção do mês! OMO Lavagem Perfeita - Sabão Líquido 5L por apenas R$ 43,55! Oferta imperdível! Compre agora e economize! #Omoperfeito #Lavagem_perfeita #Promoção_especial"
 https://amzn.to/3VwwHH1</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2024-06-20 19:52:02.268522-03:00</t>
+          <t>2024-06-26 15:39:22.594488-03:00</t>
         </is>
       </c>
       <c r="G11" s="6" t="n">
